--- a/script/异常报备测试数据2条.xlsx
+++ b/script/异常报备测试数据2条.xlsx
@@ -479,7 +479,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>仵鹏</t>
+          <t>战丽梅</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -494,52 +494,52 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>外地市场</t>
+          <t>本地市场</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>劳务协议</t>
+          <t>实习协议</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>532901198902108510</t>
+          <t>210624199911079324</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15976342033</t>
+          <t>13103748571</t>
         </is>
       </c>
       <c r="H2" s="1" t="n">
-        <v>44741.66212962963</v>
+        <v>44740.73804398148</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>高娜</t>
+          <t>严华</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>仵鹏</t>
+          <t>朱继梅</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>院校</t>
+          <t>自主招聘</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>二级院校</t>
+          <t>战丽梅</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -549,30 +549,30 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>实习协议</t>
+          <t>兼职协议</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>652123200303272249</t>
+          <t>440308200106128877</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18063726415</t>
+          <t>14584052903</t>
         </is>
       </c>
       <c r="H3" s="1" t="n">
-        <v>44738.91891203704</v>
+        <v>44741.57896990741</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>张莉</t>
+          <t>陈坤</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>女</t>
+          <t>男</t>
         </is>
       </c>
     </row>

--- a/script/异常报备测试数据2条.xlsx
+++ b/script/异常报备测试数据2条.xlsx
@@ -479,7 +479,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>战丽梅</t>
+          <t>仇洪伟</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -494,30 +494,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>本地市场</t>
+          <t>外地市场</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>实习协议</t>
+          <t>劳务协议</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>210624199911079324</t>
+          <t>320601200304151810</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>13103748571</t>
+          <t>18780635947</t>
         </is>
       </c>
       <c r="H2" s="1" t="n">
-        <v>44740.73804398148</v>
+        <v>44747.38006944444</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>严华</t>
+          <t>吕琴</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -529,7 +529,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>朱继梅</t>
+          <t>仵鹏</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -544,35 +544,35 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>本地市场</t>
+          <t>外地市场</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>兼职协议</t>
+          <t>劳动合同</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>440308200106128877</t>
+          <t>231084200212158983</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>14584052903</t>
+          <t>13829034493</t>
         </is>
       </c>
       <c r="H3" s="1" t="n">
-        <v>44741.57896990741</v>
+        <v>44745.29381944444</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>陈坤</t>
+          <t>杨坤</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>男</t>
+          <t>女</t>
         </is>
       </c>
     </row>
